--- a/Sprints/sprint 5.xlsx
+++ b/Sprints/sprint 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIND10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B73DCF-BB65-4F14-AE1B-9022D7AFCFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684BFA3-03DE-4E39-A1D5-00B96BD0AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>STATUS</t>
   </si>
@@ -39,28 +39,28 @@
     <t>QUEM REALIZOU</t>
   </si>
   <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
-    <t>24/04/2024 - 01/05/2024</t>
-  </si>
-  <si>
-    <t>Edição na tela de Fornecedores</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gabriel e Cristielen </t>
-  </si>
-  <si>
-    <t>PRONTO</t>
-  </si>
-  <si>
-    <t>Criação do Manual do Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gabriel  </t>
-  </si>
-  <si>
-    <t>Coluna1</t>
+    <t>Edições na Monografia</t>
+  </si>
+  <si>
+    <t>17/04/2024 - 24/04/2024</t>
+  </si>
+  <si>
+    <t>Edições na Tela de Fornecedores</t>
+  </si>
+  <si>
+    <t>Gabriel e Cristielen</t>
+  </si>
+  <si>
+    <t>Pronto</t>
+  </si>
+  <si>
+    <t>Edições no Manual do Usuário</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Bruno</t>
   </si>
 </sst>
 </file>
@@ -76,21 +76,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,66 +92,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -190,14 +138,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9410B550-98C1-47EC-915B-3EAE22D7D768}" name="Coluna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +463,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -529,41 +476,46 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Sprints/sprint 5.xlsx
+++ b/Sprints/sprint 5.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684BFA3-03DE-4E39-A1D5-00B96BD0AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A9517-160A-49D8-9CE8-B35C06C1CE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint 5" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>STATUS</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Bruno</t>
+  </si>
+  <si>
+    <t>HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t>2 Horas</t>
+  </si>
+  <si>
+    <t>3 Hora e 30 Minutos</t>
+  </si>
+  <si>
+    <t>2 Hora e 30 Minutos</t>
   </si>
 </sst>
 </file>
@@ -105,7 +117,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -138,12 +167,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{21864DB4-043C-466F-BE8B-32183F24CD27}" name="HORAS TRABALHADAS" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -447,23 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -474,10 +504,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -488,10 +521,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -502,10 +538,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,6 +555,9 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
